--- a/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3889,6 +3892,23 @@
         <v>94</v>
       </c>
     </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>370</v>
+      </c>
+      <c r="C176">
+        <v>171</v>
+      </c>
+      <c r="D176">
+        <v>205</v>
+      </c>
+      <c r="E176">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3897,15 +3900,32 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C176">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D176">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E176">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>368</v>
+      </c>
+      <c r="C177">
+        <v>170</v>
+      </c>
+      <c r="D177">
+        <v>206</v>
+      </c>
+      <c r="E177">
         <v>95</v>
       </c>
     </row>

--- a/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Oro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3929,6 +3932,23 @@
         <v>95</v>
       </c>
     </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>363</v>
+      </c>
+      <c r="C178">
+        <v>175</v>
+      </c>
+      <c r="D178">
+        <v>204</v>
+      </c>
+      <c r="E178">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
